--- a/src/test/resources/Excel/TestData.xlsx
+++ b/src/test/resources/Excel/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sange\Documents\NN\NewProjects\dsalgo-BDD\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEECABC3-E4B9-4F04-BF04-7D90B05399DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAD9AD3-18DE-4664-A8F3-9426B3AD2FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,7 +489,7 @@
     <col min="3" max="3" width="48.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +523,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -747,7 +747,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -775,7 +775,7 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -803,7 +803,7 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -831,7 +831,7 @@
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -859,7 +859,7 @@
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -887,7 +887,7 @@
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -915,7 +915,7 @@
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -943,7 +943,7 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -971,7 +971,7 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -999,7 +999,7 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1027,7 +1027,7 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1055,7 +1055,7 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1083,7 +1083,7 @@
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1111,7 +1111,7 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1139,7 +1139,7 @@
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1167,7 +1167,7 @@
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1195,7 +1195,7 @@
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1223,7 +1223,7 @@
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1251,7 +1251,7 @@
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -28567,7 +28567,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28608,7 +28608,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>24</v>
       </c>
@@ -28672,7 +28672,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="3"/>
@@ -28737,7 +28737,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -29020,7 +29020,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="3"/>
@@ -29048,7 +29048,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="3"/>
@@ -29076,7 +29076,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="3"/>
@@ -29104,7 +29104,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="3"/>
@@ -29132,7 +29132,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="3"/>
@@ -29160,35 +29160,35 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="21"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="21"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="21"/>
     </row>

--- a/src/test/resources/Excel/TestData.xlsx
+++ b/src/test/resources/Excel/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sange\Documents\NN\NewProjects\dsalgo-BDD\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAD9AD3-18DE-4664-A8F3-9426B3AD2FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7E7B37-48FF-4B96-8F73-5B8BA1102D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28567,7 +28567,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28737,7 +28737,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
